--- a/Dataset(Quantitative Description of Chloride Ingress in Concrete Using Machine Learning Algorithms-Aliasghar-Mamaghani etal2025).xlsx
+++ b/Dataset(Quantitative Description of Chloride Ingress in Concrete Using Machine Learning Algorithms-Aliasghar-Mamaghani etal2025).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhD, E\Paper Submition\V tech\4-ML\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA1B7C8-8C73-4FBC-9503-7BBFE4A73AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C917806D-2A01-42EE-89B2-4981430C0EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8BA7E55F-0481-47F4-B3A0-1030F3493794}"/>
   </bookViews>
@@ -552,7 +552,7 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>For the latest updates, please visit the first author GitHub webpage: https://github.com/mojtaba-aam/Quantitative-Description-of-Chloride-Ingress-in-Concrete-Using-Machine-Learning-Algorithms.git</t>
+    <t>For the latest updates, please visit the first author GitHub webpage: https://github.com/mojtaba-aam/Chloride-AI.git</t>
   </si>
 </sst>
 </file>
@@ -1103,6 +1103,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,10 +1117,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1497,85 +1497,86 @@
   <dimension ref="C5:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1680,16 +1681,16 @@
       <c r="T1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
+      <c r="U1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -1752,16 +1753,16 @@
       <c r="T2" s="4">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -41934,21 +41935,21 @@
       <c r="S675" s="4">
         <v>0</v>
       </c>
-      <c r="U675" s="14" t="s">
+      <c r="U675" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V675" s="14"/>
-      <c r="W675" s="14"/>
-      <c r="X675" s="14"/>
-      <c r="Y675" s="14"/>
-      <c r="Z675" s="14"/>
-      <c r="AA675" s="14"/>
-      <c r="AB675" s="14"/>
-      <c r="AC675" s="14"/>
-      <c r="AD675" s="14"/>
-      <c r="AE675" s="14"/>
-      <c r="AF675" s="14"/>
-      <c r="AG675" s="14"/>
+      <c r="V675" s="16"/>
+      <c r="W675" s="16"/>
+      <c r="X675" s="16"/>
+      <c r="Y675" s="16"/>
+      <c r="Z675" s="16"/>
+      <c r="AA675" s="16"/>
+      <c r="AB675" s="16"/>
+      <c r="AC675" s="16"/>
+      <c r="AD675" s="16"/>
+      <c r="AE675" s="16"/>
+      <c r="AF675" s="16"/>
+      <c r="AG675" s="16"/>
     </row>
     <row r="676" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A676">
@@ -42480,19 +42481,19 @@
       <c r="S684" s="4">
         <v>0</v>
       </c>
-      <c r="U684" s="14" t="s">
+      <c r="U684" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="V684" s="14"/>
-      <c r="W684" s="14"/>
-      <c r="X684" s="14"/>
-      <c r="Y684" s="14"/>
-      <c r="Z684" s="14"/>
-      <c r="AA684" s="14"/>
-      <c r="AB684" s="14"/>
-      <c r="AC684" s="14"/>
-      <c r="AD684" s="14"/>
-      <c r="AE684" s="14"/>
+      <c r="V684" s="16"/>
+      <c r="W684" s="16"/>
+      <c r="X684" s="16"/>
+      <c r="Y684" s="16"/>
+      <c r="Z684" s="16"/>
+      <c r="AA684" s="16"/>
+      <c r="AB684" s="16"/>
+      <c r="AC684" s="16"/>
+      <c r="AD684" s="16"/>
+      <c r="AE684" s="16"/>
     </row>
     <row r="685" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A685">
@@ -43908,17 +43909,17 @@
       <c r="S709" s="4">
         <v>0</v>
       </c>
-      <c r="U709" s="16" t="s">
+      <c r="U709" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="V709" s="16"/>
-      <c r="W709" s="16"/>
-      <c r="X709" s="16"/>
-      <c r="Y709" s="16"/>
-      <c r="Z709" s="16"/>
-      <c r="AA709" s="16"/>
-      <c r="AB709" s="16"/>
-      <c r="AC709" s="16"/>
+      <c r="V709" s="18"/>
+      <c r="W709" s="18"/>
+      <c r="X709" s="18"/>
+      <c r="Y709" s="18"/>
+      <c r="Z709" s="18"/>
+      <c r="AA709" s="18"/>
+      <c r="AB709" s="18"/>
+      <c r="AC709" s="18"/>
     </row>
     <row r="710" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A710">
@@ -44706,22 +44707,22 @@
       <c r="S723" s="4">
         <v>0</v>
       </c>
-      <c r="U723" s="14" t="s">
+      <c r="U723" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V723" s="14"/>
-      <c r="W723" s="14"/>
-      <c r="X723" s="14"/>
-      <c r="Y723" s="14"/>
-      <c r="Z723" s="14"/>
-      <c r="AA723" s="14"/>
-      <c r="AB723" s="14"/>
-      <c r="AC723" s="14"/>
-      <c r="AD723" s="14"/>
-      <c r="AE723" s="14"/>
-      <c r="AF723" s="14"/>
-      <c r="AG723" s="14"/>
-      <c r="AH723" s="14"/>
+      <c r="V723" s="16"/>
+      <c r="W723" s="16"/>
+      <c r="X723" s="16"/>
+      <c r="Y723" s="16"/>
+      <c r="Z723" s="16"/>
+      <c r="AA723" s="16"/>
+      <c r="AB723" s="16"/>
+      <c r="AC723" s="16"/>
+      <c r="AD723" s="16"/>
+      <c r="AE723" s="16"/>
+      <c r="AF723" s="16"/>
+      <c r="AG723" s="16"/>
+      <c r="AH723" s="16"/>
     </row>
     <row r="724" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A724">
@@ -51466,19 +51467,19 @@
       <c r="S843" s="4">
         <v>0</v>
       </c>
-      <c r="U843" s="14" t="s">
+      <c r="U843" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V843" s="14"/>
-      <c r="W843" s="14"/>
-      <c r="X843" s="14"/>
-      <c r="Y843" s="14"/>
-      <c r="Z843" s="14"/>
-      <c r="AA843" s="14"/>
-      <c r="AB843" s="14"/>
-      <c r="AC843" s="14"/>
-      <c r="AD843" s="14"/>
-      <c r="AE843" s="14"/>
+      <c r="V843" s="16"/>
+      <c r="W843" s="16"/>
+      <c r="X843" s="16"/>
+      <c r="Y843" s="16"/>
+      <c r="Z843" s="16"/>
+      <c r="AA843" s="16"/>
+      <c r="AB843" s="16"/>
+      <c r="AC843" s="16"/>
+      <c r="AD843" s="16"/>
+      <c r="AE843" s="16"/>
     </row>
     <row r="844" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A844">
@@ -53227,17 +53228,17 @@
       <c r="T874" s="4">
         <v>58.6</v>
       </c>
-      <c r="U874" s="15" t="s">
+      <c r="U874" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="V874" s="15"/>
-      <c r="W874" s="15"/>
-      <c r="X874" s="15"/>
-      <c r="Y874" s="15"/>
-      <c r="Z874" s="15"/>
-      <c r="AA874" s="15"/>
-      <c r="AB874" s="15"/>
-      <c r="AC874" s="15"/>
+      <c r="V874" s="17"/>
+      <c r="W874" s="17"/>
+      <c r="X874" s="17"/>
+      <c r="Y874" s="17"/>
+      <c r="Z874" s="17"/>
+      <c r="AA874" s="17"/>
+      <c r="AB874" s="17"/>
+      <c r="AC874" s="17"/>
     </row>
     <row r="875" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875">
@@ -53297,15 +53298,15 @@
       <c r="T875">
         <v>58.6</v>
       </c>
-      <c r="U875" s="15"/>
-      <c r="V875" s="15"/>
-      <c r="W875" s="15"/>
-      <c r="X875" s="15"/>
-      <c r="Y875" s="15"/>
-      <c r="Z875" s="15"/>
-      <c r="AA875" s="15"/>
-      <c r="AB875" s="15"/>
-      <c r="AC875" s="15"/>
+      <c r="U875" s="17"/>
+      <c r="V875" s="17"/>
+      <c r="W875" s="17"/>
+      <c r="X875" s="17"/>
+      <c r="Y875" s="17"/>
+      <c r="Z875" s="17"/>
+      <c r="AA875" s="17"/>
+      <c r="AB875" s="17"/>
+      <c r="AC875" s="17"/>
     </row>
     <row r="876" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876">
@@ -53365,17 +53366,17 @@
       <c r="T876">
         <v>58.6</v>
       </c>
-      <c r="U876" s="15" t="s">
+      <c r="U876" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="V876" s="15"/>
-      <c r="W876" s="15"/>
-      <c r="X876" s="15"/>
-      <c r="Y876" s="15"/>
-      <c r="Z876" s="15"/>
-      <c r="AA876" s="15"/>
-      <c r="AB876" s="15"/>
-      <c r="AC876" s="15"/>
+      <c r="V876" s="17"/>
+      <c r="W876" s="17"/>
+      <c r="X876" s="17"/>
+      <c r="Y876" s="17"/>
+      <c r="Z876" s="17"/>
+      <c r="AA876" s="17"/>
+      <c r="AB876" s="17"/>
+      <c r="AC876" s="17"/>
       <c r="AD876" s="2"/>
     </row>
     <row r="877" spans="1:30" x14ac:dyDescent="0.25">
@@ -53436,15 +53437,15 @@
       <c r="T877">
         <v>58.6</v>
       </c>
-      <c r="U877" s="15"/>
-      <c r="V877" s="15"/>
-      <c r="W877" s="15"/>
-      <c r="X877" s="15"/>
-      <c r="Y877" s="15"/>
-      <c r="Z877" s="15"/>
-      <c r="AA877" s="15"/>
-      <c r="AB877" s="15"/>
-      <c r="AC877" s="15"/>
+      <c r="U877" s="17"/>
+      <c r="V877" s="17"/>
+      <c r="W877" s="17"/>
+      <c r="X877" s="17"/>
+      <c r="Y877" s="17"/>
+      <c r="Z877" s="17"/>
+      <c r="AA877" s="17"/>
+      <c r="AB877" s="17"/>
+      <c r="AC877" s="17"/>
       <c r="AD877" s="2"/>
     </row>
     <row r="878" spans="1:30" x14ac:dyDescent="0.25">
@@ -53930,16 +53931,16 @@
       <c r="T885" s="4">
         <v>63</v>
       </c>
-      <c r="U885" s="15" t="s">
+      <c r="U885" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="V885" s="15"/>
-      <c r="W885" s="15"/>
-      <c r="X885" s="15"/>
-      <c r="Y885" s="15"/>
-      <c r="Z885" s="15"/>
-      <c r="AA885" s="15"/>
-      <c r="AB885" s="15"/>
+      <c r="V885" s="17"/>
+      <c r="W885" s="17"/>
+      <c r="X885" s="17"/>
+      <c r="Y885" s="17"/>
+      <c r="Z885" s="17"/>
+      <c r="AA885" s="17"/>
+      <c r="AB885" s="17"/>
     </row>
     <row r="886" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A886">
@@ -53999,14 +54000,14 @@
       <c r="T886">
         <v>63</v>
       </c>
-      <c r="U886" s="15"/>
-      <c r="V886" s="15"/>
-      <c r="W886" s="15"/>
-      <c r="X886" s="15"/>
-      <c r="Y886" s="15"/>
-      <c r="Z886" s="15"/>
-      <c r="AA886" s="15"/>
-      <c r="AB886" s="15"/>
+      <c r="U886" s="17"/>
+      <c r="V886" s="17"/>
+      <c r="W886" s="17"/>
+      <c r="X886" s="17"/>
+      <c r="Y886" s="17"/>
+      <c r="Z886" s="17"/>
+      <c r="AA886" s="17"/>
+      <c r="AB886" s="17"/>
     </row>
     <row r="887" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A887">
